--- a/src/test/resources/me/excel/tools/transfer/test.xlsx
+++ b/src/test/resources/me/excel/tools/transfer/test.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26915"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="800" yWindow="460" windowWidth="24800" windowHeight="15540"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -46,14 +46,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="177" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -81,11 +87,11 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -363,7 +369,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -400,6 +406,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>